--- a/Dataset/Folds/Fold_5/Excel/34.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/34.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="125">
   <si>
     <t>Doi</t>
   </si>
@@ -403,6 +403,30 @@
   </si>
   <si>
     <t>[Wei-jie%Guan%NULL%0,                           Zheng-yi%Ni%NULL%6,                           Zheng-yi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Wen-hua%Liang%NULL%3,                           Chun-quan%Ou%NULL%3,                           Jian-xing%He%NULL%3,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chun-liang%Lei%NULL%3,                           David S.C.%Hui%NULL%4,                           Bin%Du%NULL%3,                           Lan-juan%Li%NULL%3,                           Guang%Zeng%NULL%3,                           Kwok-Yung%Yuen%NULL%0,                           Ru-chong%Chen%NULL%3,                           Chun-li%Tang%NULL%3,                           Tao%Wang%NULL%0,                           Ping-yan%Chen%NULL%3,                           Jie%Xiang%NULL%0,                           Shi-yue%Li%NULL%3,                           Jin-lin%Wang%NULL%3,                           Zi-jing%Liang%NULL%3,                           Yi-xiang%Peng%NULL%3,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Ya-hua%Hu%NULL%3,                           Peng%Peng%NULL%0,                           Jian-ming%Wang%NULL%4,                           Ji-yang%Liu%NULL%3,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhi-jian%Zheng%NULL%3,                           Shao-qin%Qiu%NULL%3,                           Jie%Luo%NULL%0,                           Chang-jiang%Ye%NULL%3,                           Shao-yong%Zhu%NULL%3,                           Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                            Wenhua%Liang%NULL%0,                            Mei%Jiang%NULL%0,                            Weijie%Guan%NULL%0,                            Chen%Zhan%NULL%0,                            Tao%Wang%NULL%0,                            Chunli%Tang%NULL%0,                            Ling%Sang%NULL%0,                            Jiaxing%Liu%NULL%0,                            Zhengyi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chunliang%Lei%NULL%0,                            Yixiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Yahua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jianming%Wang%NULL%0,                            Jiyang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhijian%Zheng%NULL%0,                            Shaoqin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Changjiang%Ye%NULL%0,                            Shaoyong%Zhu%NULL%0,                            Xiaoqing%Liu%NULL%0,                            Linling%Cheng%NULL%0,                            Feng%Ye%NULL%0,                            Jinping%Zheng%NULL%0,                            Nuofu%Zhang%NULL%0,                            Yimin%Li%NULL%0,                            Jianxing%He%NULL%0,                            Shiyue%Li%lishiyue@188.com%0,                            Nanshan%Zhong%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                            Zheng-yi%Ni%NULL%6,                            Zheng-yi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Wen-hua%Liang%NULL%3,                            Chun-quan%Ou%NULL%3,                            Jian-xing%He%NULL%3,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chun-liang%Lei%NULL%3,                            David S.C.%Hui%NULL%4,                            Bin%Du%NULL%3,                            Lan-juan%Li%NULL%3,                            Guang%Zeng%NULL%3,                            Kwok-Yung%Yuen%NULL%0,                            Ru-chong%Chen%NULL%3,                            Chun-li%Tang%NULL%3,                            Tao%Wang%NULL%0,                            Ping-yan%Chen%NULL%3,                            Jie%Xiang%NULL%0,                            Shi-yue%Li%NULL%3,                            Jin-lin%Wang%NULL%3,                            Zi-jing%Liang%NULL%3,                            Yi-xiang%Peng%NULL%3,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Ya-hua%Hu%NULL%3,                            Peng%Peng%NULL%0,                            Jian-ming%Wang%NULL%4,                            Ji-yang%Liu%NULL%3,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhi-jian%Zheng%NULL%3,                            Shao-qin%Qiu%NULL%3,                            Jie%Luo%NULL%0,                            Chang-jiang%Ye%NULL%3,                            Shao-yong%Zhu%NULL%3,                            Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                             Wenhua%Liang%NULL%0,                             Mei%Jiang%NULL%0,                             Weijie%Guan%NULL%0,                             Chen%Zhan%NULL%0,                             Tao%Wang%NULL%0,                             Chunli%Tang%NULL%0,                             Ling%Sang%NULL%0,                             Jiaxing%Liu%NULL%0,                             Zhengyi%Ni%NULL%0,                             Yu%Hu%NULL%0,                             Lei%Liu%NULL%0,                             Hong%Shan%NULL%0,                             Chunliang%Lei%NULL%0,                             Yixiang%Peng%NULL%0,                             Li%Wei%NULL%0,                             Yong%Liu%NULL%0,                             Yahua%Hu%NULL%0,                             Peng%Peng%NULL%0,                             Jianming%Wang%NULL%0,                             Jiyang%Liu%NULL%0,                             Zhong%Chen%NULL%0,                             Gang%Li%NULL%0,                             Zhijian%Zheng%NULL%0,                             Shaoqin%Qiu%NULL%0,                             Jie%Luo%NULL%0,                             Changjiang%Ye%NULL%0,                             Shaoyong%Zhu%NULL%0,                             Xiaoqing%Liu%NULL%0,                             Linling%Cheng%NULL%0,                             Feng%Ye%NULL%0,                             Jinping%Zheng%NULL%0,                             Nuofu%Zhang%NULL%0,                             Yimin%Li%NULL%0,                             Jianxing%He%NULL%0,                             Shiyue%Li%lishiyue@188.com%0,                             Nanshan%Zhong%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                             Zheng-yi%Ni%NULL%6,                             Zheng-yi%Ni%NULL%0,                             Yu%Hu%NULL%0,                             Wen-hua%Liang%NULL%3,                             Chun-quan%Ou%NULL%3,                             Jian-xing%He%NULL%3,                             Lei%Liu%NULL%0,                             Hong%Shan%NULL%0,                             Chun-liang%Lei%NULL%3,                             David S.C.%Hui%NULL%4,                             Bin%Du%NULL%3,                             Lan-juan%Li%NULL%3,                             Guang%Zeng%NULL%3,                             Kwok-Yung%Yuen%NULL%0,                             Ru-chong%Chen%NULL%3,                             Chun-li%Tang%NULL%3,                             Tao%Wang%NULL%0,                             Ping-yan%Chen%NULL%3,                             Jie%Xiang%NULL%0,                             Shi-yue%Li%NULL%3,                             Jin-lin%Wang%NULL%3,                             Zi-jing%Liang%NULL%3,                             Yi-xiang%Peng%NULL%3,                             Li%Wei%NULL%0,                             Yong%Liu%NULL%0,                             Ya-hua%Hu%NULL%3,                             Peng%Peng%NULL%0,                             Jian-ming%Wang%NULL%4,                             Ji-yang%Liu%NULL%3,                             Zhong%Chen%NULL%0,                             Gang%Li%NULL%0,                             Zhi-jian%Zheng%NULL%3,                             Shao-qin%Qiu%NULL%3,                             Jie%Luo%NULL%0,                             Chang-jiang%Ye%NULL%3,                             Shao-yong%Zhu%NULL%3,                             Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0, Wenhua%Liang%NULL%0, Mei%Jiang%NULL%0, Weijie%Guan%NULL%0, Chen%Zhan%NULL%0, Tao%Wang%NULL%0, Chunli%Tang%NULL%0, Ling%Sang%NULL%0, Jiaxing%Liu%NULL%0, Zhengyi%Ni%NULL%0, Yu%Hu%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chunliang%Lei%NULL%0, Yixiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Yahua%Hu%NULL%0, Peng%Peng%NULL%0, Jianming%Wang%NULL%0, Jiyang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhijian%Zheng%NULL%0, Shaoqin%Qiu%NULL%0, Jie%Luo%NULL%0, Changjiang%Ye%NULL%0, Shaoyong%Zhu%NULL%0, Xiaoqing%Liu%NULL%0, Linling%Cheng%NULL%0, Feng%Ye%NULL%0, Jinping%Zheng%NULL%0, Nuofu%Zhang%NULL%0, Yimin%Li%NULL%0, Jianxing%He%NULL%0, Shiyue%Li%lishiyue@188.com%0, Nanshan%Zhong%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>American College of Chest Physicians. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0, Zheng-yi%Ni%NULL%0, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%0, Wen-hua%Liang%NULL%0, Chun-quan%Ou%NULL%0, Jian-xing%He%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, David S.C.%Hui%NULL%0, Bin%Du%NULL%0, Lan-juan%Li%NULL%0, Guang%Zeng%NULL%0, Kwok-Yung%Yuen%NULL%0, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Ping-yan%Chen%NULL%0, Jie%Xiang%NULL%0, Shi-yue%Li%NULL%0, Jin-lin%Wang%NULL%0, Zi-jing%Liang%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
   </si>
 </sst>
 </file>
@@ -728,28 +752,28 @@
         <v>43885.0</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -760,28 +784,28 @@
         <v>43909.0</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -798,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -810,10 +834,10 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
@@ -830,7 +854,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
@@ -842,10 +866,10 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
